--- a/4_Exame/AspDotNet_Exame/Exam1.xlsx
+++ b/4_Exame/AspDotNet_Exame/Exam1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhamAnhPhu_Fit\4_Exame\AspDotNet_Exame\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA45854-D01A-48D2-8559-E6DF155C0EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thiet lap tham so phi VSD" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>FIT</author>
     <author>Ngoc Tran Thi Bich</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="1" shapeId="0">
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>THIẾT LẬP THAM SỐ PHÍ QLVT</t>
   </si>
@@ -85,9 +86,6 @@
   </si>
   <si>
     <t>Tình trạng</t>
-  </si>
-  <si>
-    <t>Chờ duyệt</t>
   </si>
   <si>
     <t>Tìm kiếm</t>
@@ -162,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -817,11 +815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -911,16 +909,16 @@
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="L10" s="6"/>
     </row>
@@ -931,7 +929,7 @@
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>1</v>
@@ -940,16 +938,16 @@
         <v>2</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="L12" s="6"/>
     </row>
@@ -962,19 +960,19 @@
         <v>3000</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="H13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="I13" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="6"/>
     </row>
@@ -987,19 +985,19 @@
         <v>4000</v>
       </c>
       <c r="E14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="G14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="6"/>
     </row>
@@ -1012,19 +1010,19 @@
         <v>4000</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="G15" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="6"/>
     </row>
@@ -1043,36 +1041,36 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Chờ duyệt, Chờ kích hoạt, Hiệu lực, Hết hiệu lực"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1278,13 +1276,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BC7B6D7-F9BE-4925-A4D7-F21714CA59AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BC7B6D7-F9BE-4925-A4D7-F21714CA59AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bbe0b80f-43d4-4066-9016-54c88fea8709"/>
+    <ds:schemaRef ds:uri="b93800f0-4c0a-49e3-b3b5-891abe51a4ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41FE5883-1FED-4993-91B4-840461820A2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41FE5883-1FED-4993-91B4-840461820A2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9FE6EA-EDAF-4BB6-9891-325335EB0848}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9FE6EA-EDAF-4BB6-9891-325335EB0848}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>